--- a/src/main/resources/cases/cases_v6.xlsx
+++ b/src/main/resources/cases/cases_v6.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jingnan/code/01-Github/autoapi/src/main/resources/cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B599B482-1ABA-4945-ABB7-D3BE467A0404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{9C3C1E86-2214-AA49-BC7B-33F0156BA1E8}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="6300" yWindow="-19220" windowWidth="26560" windowHeight="12620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" windowHeight="12620" windowWidth="26560" xWindow="6300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-19220"/>
   </bookViews>
   <sheets>
-    <sheet name="接口信息" sheetId="1" r:id="rId1"/>
-    <sheet name="用例" sheetId="2" r:id="rId2"/>
+    <sheet name="接口信息" r:id="rId1" sheetId="1"/>
+    <sheet name="用例" r:id="rId2" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">用例!#REF!</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">用例!#REF!</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="68">
   <si>
     <t>ApiId(接口编号)</t>
   </si>
@@ -107,26 +107,6 @@
     <t>ActualResponseData(实际响应数据)</t>
   </si>
   <si>
-    <t>{"status":0,"code":"20103","data":null,"msg":"不合格的手机号"}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20103","data":null,"msg":"密码长度必须为6-18"}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20109","data":null,"msg":"注册成功"}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20108","data":null,"msg":"该手机号已被注册"}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20111","data":null,"msg":"用户名或者密码错误"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>充值失败，金额小数不能超过两位</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -139,10 +119,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{"status":0,"code":"10001","data":null,"msg":"充值成功"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>充值失败，会员不存在</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -151,126 +127,141 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{"status":0,"code":"20117","data":null,"msg":"充值失败，手机号格式不正确"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20117","data":null,"msg":"充值失败，查过充值最大值"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20116","data":null,"msg":"充值失败，金额小数不能超过两位"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ExpectedResponseData(期望响应数据)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>{"status":0,"code":"10001","data":null,"msg":"登陆成功"}</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8848/api/member/register</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8848/api/member/login</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8848/api/member/recharge</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8848/api/member/withdraw</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8848/api/member/list</t>
+  </si>
+  <si>
+    <t>list?name=&amp;age=</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phone":"18268046852","amount":"100"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phone":"18268046852","amount":"-100"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值失败，请输入范围在0到50万之间的正数金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phone":"18268046852","amount":"100.000"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phone":"1826804","amount":"100"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>取现成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表查询</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询用户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"Stark","age","18"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"status": 0,"code": "10001","data": "余额为0元","msg": "取现成功"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name": "stark,thor,loki,steve,banner"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"msg": "I am IronMan"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phone":"18268046853","amount":"100"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20110","data":null,"msg":"手机号码格式不正确"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20110","data":null,"msg":"密码长度必须为6-18"}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":null,"msg":"注册成功"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20110","data":null,"msg":"该手机号已被注册"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20110","data":null,"msg":"用户名或密码错误"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20117","data":null,"msg":"输入范围在0到50万之间的正数金额"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20116","data":null,"msg":"输入金额的金额小数不能超过两位"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20117","data":null,"msg":"手机号格式不正确"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"10001","data":"目前账户余额100元","msg":"充值成功"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20104","data":null,"msg":"手机号对应会员不存在"}</t>
+  </si>
+  <si>
+    <t>请登录后再试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phone":"18268046852","amount":"1000"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>{"status":0,"code":"10001","data":null,"msg":"登陆成功"}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20110","data":null,"msg":"用户名或密码错误"}</t>
-  </si>
-  <si>
-    <t>通过</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20110","data":null,"msg":"手机号码格式不正确"}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20110","data":null,"msg":"密码长度必须为6-18"}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":null,"msg":"注册成功"}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20110","data":null,"msg":"该手机号已被注册"}</t>
-  </si>
-  <si>
-    <t>http://127.0.0.1:8848/api/member/register</t>
-  </si>
-  <si>
-    <t>http://127.0.0.1:8848/api/member/login</t>
-  </si>
-  <si>
-    <t>http://127.0.0.1:8848/api/member/recharge</t>
-  </si>
-  <si>
-    <t>http://127.0.0.1:8848/api/member/withdraw</t>
-  </si>
-  <si>
-    <t>http://127.0.0.1:8848/api/member/list</t>
-  </si>
-  <si>
-    <t>list?name=&amp;age=</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>get</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"phone":"18268046852","amount":"123456.00112"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"phone":"18268046853","amount":"123456"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"phone":"18268046852","amount":"100"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"phone":"18268046852","amount":"-100"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>充值失败，请输入范围在0到50万之间的正数金额</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>取现成功</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"phone":"1826804","amount":"100.000"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>列表查询</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询用户</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"name":"Stark","age","18"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"status": 0,"code": "10001","data": "余额为0元","msg": "取现成功"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"name": "stark,thor,loki,steve,banner"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"msg": "I am IronMan"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>{"status":0,"code":"10002","data":"null","msg":"请登录后再试"}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <numFmts count="0"/>
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,12 +301,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -348,51 +333,51 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle builtinId="8" name="超链接" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -409,10 +394,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -447,7 +432,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -499,7 +484,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -604,7 +589,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -613,13 +598,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -629,7 +614,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -638,7 +623,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -647,7 +632,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -657,12 +642,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -693,7 +678,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -712,7 +697,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -724,19 +709,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.1640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="77.1640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="19.1640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="22.1640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="20.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="77.1640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -764,7 +749,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -778,7 +763,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -792,7 +777,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -806,7 +791,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -820,7 +805,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -828,48 +813,48 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" display="http://127.0.0.1:8888/api/member/login" xr:uid="{6A561754-01CA-5E44-BD1F-14DE74691068}"/>
-    <hyperlink ref="D2" r:id="rId2" display="http://127.0.0.1:8888/api/member/register" xr:uid="{D9EC6166-2F8A-4A44-BF0B-6669CD9F5819}"/>
-    <hyperlink ref="D4" r:id="rId3" display="http://127.0.0.1:8888/api/member/recharge" xr:uid="{EC90B76E-9BF9-6847-B8A1-6B3FAAE54834}"/>
-    <hyperlink ref="D5" r:id="rId4" display="http://127.0.0.1:8888/api/member/withdraw" xr:uid="{30A0EBFF-535F-A74A-8C41-2EE6F7465375}"/>
-    <hyperlink ref="D6" r:id="rId5" display="http://127.0.0.1:8888/api/member/list" xr:uid="{E9944DA7-0646-694E-8914-3E6ACC1D7539}"/>
-    <hyperlink ref="D7" r:id="rId6" display="http://127.0.0.1:8888/api/member/list" xr:uid="{1F89AA8B-3F0D-4D4E-832E-573FEB5CEE29}"/>
+    <hyperlink display="http://127.0.0.1:8888/api/member/login" r:id="rId1" ref="D3" xr:uid="{6A561754-01CA-5E44-BD1F-14DE74691068}"/>
+    <hyperlink display="http://127.0.0.1:8888/api/member/register" r:id="rId2" ref="D2" xr:uid="{D9EC6166-2F8A-4A44-BF0B-6669CD9F5819}"/>
+    <hyperlink display="http://127.0.0.1:8888/api/member/recharge" r:id="rId3" ref="D4" xr:uid="{EC90B76E-9BF9-6847-B8A1-6B3FAAE54834}"/>
+    <hyperlink display="http://127.0.0.1:8888/api/member/withdraw" r:id="rId4" ref="D5" xr:uid="{30A0EBFF-535F-A74A-8C41-2EE6F7465375}"/>
+    <hyperlink display="http://127.0.0.1:8888/api/member/list" r:id="rId5" ref="D6" xr:uid="{E9944DA7-0646-694E-8914-3E6ACC1D7539}"/>
+    <hyperlink display="http://127.0.0.1:8888/api/member/list" r:id="rId6" ref="D7" xr:uid="{1F89AA8B-3F0D-4D4E-832E-573FEB5CEE29}"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins bottom="1" footer="0.51180555555555596" header="0.51180555555555596" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.6640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="47.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="77.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="69.1640625" style="7" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="16.1640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="30.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="16.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="47.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="77.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="7" width="69.1640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="1" spans="1:6">
       <c r="A1" s="4" t="s">
         <v>18</v>
       </c>
@@ -883,7 +868,7 @@
         <v>8</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>25</v>
@@ -902,11 +887,11 @@
       <c r="D2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>26</v>
+      <c r="E2" t="s">
+        <v>53</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -922,14 +907,14 @@
       <c r="D3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>27</v>
+      <c r="E3" t="s">
+        <v>54</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="12" customHeight="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12" r="4" spans="1:6">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -942,11 +927,11 @@
       <c r="D4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>28</v>
+      <c r="E4" t="s">
+        <v>55</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -962,11 +947,11 @@
       <c r="D5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>29</v>
+      <c r="E5" t="s">
+        <v>56</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -982,11 +967,11 @@
       <c r="D6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>30</v>
+      <c r="E6" t="s">
+        <v>57</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1002,11 +987,11 @@
       <c r="D7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E7" t="s">
-        <v>42</v>
+      <c r="E7" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1014,19 +999,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="C8" s="4">
         <v>3</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>38</v>
+        <v>41</v>
+      </c>
+      <c r="E8" t="s">
+        <v>58</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1034,19 +1019,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C9" s="4">
         <v>3</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>39</v>
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
+        <v>59</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1054,76 +1039,77 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C10" s="4">
         <v>3</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>37</v>
+        <v>44</v>
+      </c>
+      <c r="E10" t="s">
+        <v>60</v>
       </c>
       <c r="F10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>65</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="11" spans="1:6">
       <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C11" s="4">
         <v>3</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>34</v>
+        <v>40</v>
+      </c>
+      <c r="E11" t="s">
+        <v>61</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>65</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="12" spans="1:6">
       <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="C12" s="4">
         <v>3</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>36</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="E12" s="8"/>
       <c r="F12" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="1">
-        <v>4</v>
+      <c r="B13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="4">
+        <v>3</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>66</v>
+        <v>30</v>
+      </c>
+      <c r="F13" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1131,13 +1117,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C14" s="1">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1145,24 +1134,38 @@
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="C15" s="1">
+        <v>5</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="1">
         <v>6</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="19">
-      <c r="E16" s="11"/>
+      <c r="D16" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row ht="19" r="17" spans="5:5">
+      <c r="E17" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/src/main/resources/cases/cases_v6.xlsx
+++ b/src/main/resources/cases/cases_v6.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jingnan/code/01-Github/autoapi/src/main/resources/cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{9C3C1E86-2214-AA49-BC7B-33F0156BA1E8}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADFFE0F-16FB-DB4B-992F-149D69AFF54E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="12620" windowWidth="26560" xWindow="6300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-19220"/>
+    <workbookView xWindow="6300" yWindow="-19220" windowWidth="26560" windowHeight="12620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="接口信息" r:id="rId1" sheetId="1"/>
-    <sheet name="用例" r:id="rId2" sheetId="2"/>
+    <sheet name="接口信息" sheetId="1" r:id="rId1"/>
+    <sheet name="用例" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">用例!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">用例!#REF!</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="70">
   <si>
     <t>ApiId(接口编号)</t>
   </si>
@@ -101,9 +101,6 @@
     <t>{"phone":"18268046854","password":"123456"}</t>
   </si>
   <si>
-    <t>登陆成功</t>
-  </si>
-  <si>
     <t>ActualResponseData(实际响应数据)</t>
   </si>
   <si>
@@ -115,10 +112,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>充值成功</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>充值失败，会员不存在</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -250,17 +243,33 @@
     <t>通过</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>{"status":0,"code":"10002","data":"null","msg":"请登录后再试"}</t>
+  </si>
+  <si>
+    <t>充值成功-需要token</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值成功-需要cookie</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆成功-返回cookie</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆成功-返回token</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phone":"18268046852","password":"123456789"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -333,51 +342,51 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
-    <cellStyle builtinId="8" name="超链接" xfId="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -394,10 +403,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -432,7 +441,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -484,7 +493,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -589,7 +598,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -598,13 +607,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -614,7 +623,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -623,7 +632,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -632,7 +641,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -642,12 +651,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -678,7 +687,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -697,7 +706,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -709,8 +718,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
@@ -718,10 +727,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="19.1640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="22.1640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="20.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="77.1640625" collapsed="true"/>
+    <col min="1" max="1" width="19.1640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.1640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="77.1640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -749,7 +758,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -763,7 +772,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -777,7 +786,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -791,7 +800,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -805,7 +814,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -813,48 +822,48 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink display="http://127.0.0.1:8888/api/member/login" r:id="rId1" ref="D3" xr:uid="{6A561754-01CA-5E44-BD1F-14DE74691068}"/>
-    <hyperlink display="http://127.0.0.1:8888/api/member/register" r:id="rId2" ref="D2" xr:uid="{D9EC6166-2F8A-4A44-BF0B-6669CD9F5819}"/>
-    <hyperlink display="http://127.0.0.1:8888/api/member/recharge" r:id="rId3" ref="D4" xr:uid="{EC90B76E-9BF9-6847-B8A1-6B3FAAE54834}"/>
-    <hyperlink display="http://127.0.0.1:8888/api/member/withdraw" r:id="rId4" ref="D5" xr:uid="{30A0EBFF-535F-A74A-8C41-2EE6F7465375}"/>
-    <hyperlink display="http://127.0.0.1:8888/api/member/list" r:id="rId5" ref="D6" xr:uid="{E9944DA7-0646-694E-8914-3E6ACC1D7539}"/>
-    <hyperlink display="http://127.0.0.1:8888/api/member/list" r:id="rId6" ref="D7" xr:uid="{1F89AA8B-3F0D-4D4E-832E-573FEB5CEE29}"/>
+    <hyperlink ref="D3" r:id="rId1" display="http://127.0.0.1:8888/api/member/login" xr:uid="{6A561754-01CA-5E44-BD1F-14DE74691068}"/>
+    <hyperlink ref="D2" r:id="rId2" display="http://127.0.0.1:8888/api/member/register" xr:uid="{D9EC6166-2F8A-4A44-BF0B-6669CD9F5819}"/>
+    <hyperlink ref="D4" r:id="rId3" display="http://127.0.0.1:8888/api/member/recharge" xr:uid="{EC90B76E-9BF9-6847-B8A1-6B3FAAE54834}"/>
+    <hyperlink ref="D5" r:id="rId4" display="http://127.0.0.1:8888/api/member/withdraw" xr:uid="{30A0EBFF-535F-A74A-8C41-2EE6F7465375}"/>
+    <hyperlink ref="D6" r:id="rId5" display="http://127.0.0.1:8888/api/member/list" xr:uid="{E9944DA7-0646-694E-8914-3E6ACC1D7539}"/>
+    <hyperlink ref="D7" r:id="rId6" display="http://127.0.0.1:8888/api/member/list" xr:uid="{1F89AA8B-3F0D-4D4E-832E-573FEB5CEE29}"/>
   </hyperlinks>
-  <pageMargins bottom="1" footer="0.51180555555555596" header="0.51180555555555596" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="16.1640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="30.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="16.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="47.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="77.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="7" width="69.1640625" collapsed="true"/>
+    <col min="1" max="1" width="16.1640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.6640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="47.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="77.6640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="69.1640625" style="7" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="18" r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="18" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>18</v>
       </c>
@@ -868,10 +877,10 @@
         <v>8</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -888,10 +897,10 @@
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -908,13 +917,13 @@
         <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12" r="4" spans="1:6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="12" customHeight="1">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -928,10 +937,10 @@
         <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -948,13 +957,13 @@
         <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -968,10 +977,10 @@
         <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -979,193 +988,233 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="C7" s="4">
         <v>2</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="C8" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" t="s">
-        <v>65</v>
+        <v>17</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C9" s="4">
         <v>3</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C10" s="4">
         <v>3</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="11" spans="1:6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C11" s="4">
         <v>3</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="12" spans="1:6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1">
       <c r="A12" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C12" s="4">
         <v>3</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="8"/>
+        <v>38</v>
+      </c>
+      <c r="E12" t="s">
+        <v>59</v>
+      </c>
       <c r="F12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1">
       <c r="A13" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="C13" s="4">
         <v>3</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>30</v>
+        <v>38</v>
+      </c>
+      <c r="E13" t="s">
+        <v>59</v>
       </c>
       <c r="F13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" customHeight="1">
+      <c r="A14" s="4">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="4">
+        <v>3</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="4">
-        <v>13</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="1">
-        <v>4</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>49</v>
+      <c r="E14" s="8"/>
+      <c r="F14" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="4">
-        <v>14</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="1">
-        <v>5</v>
+        <v>13</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="4">
+        <v>3</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>50</v>
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="4">
+        <v>14</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="1">
+        <v>4</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="1">
+      <c r="B17" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="1">
+        <v>5</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="4">
+        <v>16</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="1">
         <v>6</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row ht="19" r="17" spans="5:5">
-      <c r="E17" s="11"/>
+      <c r="D18" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="19">
+      <c r="E19" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/src/main/resources/cases/cases_v6.xlsx
+++ b/src/main/resources/cases/cases_v6.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jingnan/code/01-Github/autoapi/src/main/resources/cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADFFE0F-16FB-DB4B-992F-149D69AFF54E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{BADFFE0F-16FB-DB4B-992F-149D69AFF54E}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="6300" yWindow="-19220" windowWidth="26560" windowHeight="12620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" windowHeight="12620" windowWidth="26560" xWindow="6300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-19220"/>
   </bookViews>
   <sheets>
-    <sheet name="接口信息" sheetId="1" r:id="rId1"/>
-    <sheet name="用例" sheetId="2" r:id="rId2"/>
+    <sheet name="接口信息" r:id="rId1" sheetId="1"/>
+    <sheet name="用例" r:id="rId2" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">用例!#REF!</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">用例!#REF!</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="72">
   <si>
     <t>ApiId(接口编号)</t>
   </si>
@@ -264,12 +264,19 @@
   <si>
     <t>{"phone":"18268046852","password":"123456789"}</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>{"status":0,"code":"10001","data":null,"msg":"登陆成功","token":"123456789abcdefg"}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -342,51 +349,51 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle builtinId="8" name="超链接" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -403,10 +410,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -441,7 +448,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -493,7 +500,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -598,7 +605,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -607,13 +614,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -623,7 +630,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -632,7 +639,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -641,7 +648,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -651,12 +658,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -687,7 +694,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -706,7 +713,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -718,8 +725,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
@@ -727,10 +734,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.1640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="77.1640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="19.1640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="22.1640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="20.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="77.1640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -834,20 +841,20 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" display="http://127.0.0.1:8888/api/member/login" xr:uid="{6A561754-01CA-5E44-BD1F-14DE74691068}"/>
-    <hyperlink ref="D2" r:id="rId2" display="http://127.0.0.1:8888/api/member/register" xr:uid="{D9EC6166-2F8A-4A44-BF0B-6669CD9F5819}"/>
-    <hyperlink ref="D4" r:id="rId3" display="http://127.0.0.1:8888/api/member/recharge" xr:uid="{EC90B76E-9BF9-6847-B8A1-6B3FAAE54834}"/>
-    <hyperlink ref="D5" r:id="rId4" display="http://127.0.0.1:8888/api/member/withdraw" xr:uid="{30A0EBFF-535F-A74A-8C41-2EE6F7465375}"/>
-    <hyperlink ref="D6" r:id="rId5" display="http://127.0.0.1:8888/api/member/list" xr:uid="{E9944DA7-0646-694E-8914-3E6ACC1D7539}"/>
-    <hyperlink ref="D7" r:id="rId6" display="http://127.0.0.1:8888/api/member/list" xr:uid="{1F89AA8B-3F0D-4D4E-832E-573FEB5CEE29}"/>
+    <hyperlink display="http://127.0.0.1:8888/api/member/login" r:id="rId1" ref="D3" xr:uid="{6A561754-01CA-5E44-BD1F-14DE74691068}"/>
+    <hyperlink display="http://127.0.0.1:8888/api/member/register" r:id="rId2" ref="D2" xr:uid="{D9EC6166-2F8A-4A44-BF0B-6669CD9F5819}"/>
+    <hyperlink display="http://127.0.0.1:8888/api/member/recharge" r:id="rId3" ref="D4" xr:uid="{EC90B76E-9BF9-6847-B8A1-6B3FAAE54834}"/>
+    <hyperlink display="http://127.0.0.1:8888/api/member/withdraw" r:id="rId4" ref="D5" xr:uid="{30A0EBFF-535F-A74A-8C41-2EE6F7465375}"/>
+    <hyperlink display="http://127.0.0.1:8888/api/member/list" r:id="rId5" ref="D6" xr:uid="{E9944DA7-0646-694E-8914-3E6ACC1D7539}"/>
+    <hyperlink display="http://127.0.0.1:8888/api/member/list" r:id="rId6" ref="D7" xr:uid="{1F89AA8B-3F0D-4D4E-832E-573FEB5CEE29}"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins bottom="1" footer="0.51180555555555596" header="0.51180555555555596" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
@@ -855,15 +862,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.6640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="47.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="77.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="69.1640625" style="7" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="16.1640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="30.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="16.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="47.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="77.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="7" width="69.1640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="1" spans="1:6">
       <c r="A1" s="4" t="s">
         <v>18</v>
       </c>
@@ -923,7 +930,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="4" spans="1:6">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -963,7 +970,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="6" spans="1:6">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1083,7 +1090,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="12" spans="1:6">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -1103,7 +1110,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="13" spans="1:6">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -1123,7 +1130,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="14" spans="1:6">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -1209,12 +1216,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="19">
+    <row ht="19" r="19" spans="1:5">
       <c r="E19" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/src/main/resources/cases/cases_v6.xlsx
+++ b/src/main/resources/cases/cases_v6.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="72">
   <si>
     <t>ApiId(接口编号)</t>
   </si>
@@ -907,7 +907,7 @@
         <v>51</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -927,7 +927,7 @@
         <v>52</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row customHeight="1" ht="12" r="4" spans="1:6">
@@ -947,7 +947,7 @@
         <v>53</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -967,7 +967,7 @@
         <v>54</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="6" spans="1:6">
@@ -987,7 +987,7 @@
         <v>55</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1027,7 +1027,7 @@
         <v>30</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1047,7 +1047,7 @@
         <v>56</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1067,7 +1067,7 @@
         <v>57</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1087,7 +1087,7 @@
         <v>58</v>
       </c>
       <c r="F11" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="12" spans="1:6">
@@ -1107,7 +1107,7 @@
         <v>59</v>
       </c>
       <c r="F12" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="13" spans="1:6">
@@ -1127,7 +1127,7 @@
         <v>59</v>
       </c>
       <c r="F13" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="14" spans="1:6">
@@ -1145,7 +1145,7 @@
       </c>
       <c r="E14" s="8"/>
       <c r="F14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1165,7 +1165,7 @@
         <v>28</v>
       </c>
       <c r="F15" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:6">
